--- a/2014/Getränke/Liste Getränke DA und GN für Lagerhaus.xlsx
+++ b/2014/Getränke/Liste Getränke DA und GN für Lagerhaus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
   <si>
     <t>Getränk</t>
   </si>
@@ -291,10 +291,43 @@
     <t>Glarea Nox:</t>
   </si>
   <si>
-    <t>2x Große Kühlschränke, 1x Durchlaufkühler, 1x Kohlensäure, 140x Kaiser Biergläser 0,3l , 120x Kaiser Biergläser 0,5l, 10x Brauereigarnituren</t>
-  </si>
-  <si>
-    <t>3x Große Kühlschränke, 1x Großer Doppel-Durchlaufkühler, 2x Kohlensäure, 1x UNO-Bar mit Schirm und Durchlaufkühler, 50x Brauereigarnituren</t>
+    <t>2x Große Kühlschränke à 14,40 €</t>
+  </si>
+  <si>
+    <t>1x Durchlaufkühler à 14,40 €</t>
+  </si>
+  <si>
+    <t>50x Brauereigarnituren à 2,64 €</t>
+  </si>
+  <si>
+    <t>10x Brauereigarnituren à 2,64 €</t>
+  </si>
+  <si>
+    <t>1x UNO-Bar mit großem Schirm und Durchlaufkühler à 60,00 €</t>
+  </si>
+  <si>
+    <t>1x Durchlaufkühler  à 14,40 €</t>
+  </si>
+  <si>
+    <t>3x Große Kühlschränke à 14,40 €</t>
+  </si>
+  <si>
+    <t>140x Kaiser Biergläser 0,3l gratis</t>
+  </si>
+  <si>
+    <t>120x Kaiser Biergläser 0,5l gratis</t>
+  </si>
+  <si>
+    <t>Ausgeliehene Geräte (Preise inkl. Ust)</t>
+  </si>
+  <si>
+    <t>(Preise inkl. Ust)</t>
+  </si>
+  <si>
+    <t>1x Kohlensäure 5kg à 36,96 €</t>
+  </si>
+  <si>
+    <t>2x Kohlensäure 5kg à 36,96 €</t>
   </si>
 </sst>
 </file>
@@ -304,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +366,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -386,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -425,6 +466,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -731,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,6 +796,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="E2" s="6" t="s">
         <v>85</v>
       </c>
@@ -2046,31 +2092,72 @@
       </c>
       <c r="F70" s="14"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="71" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C73" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>92</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/2014/Getränke/Liste Getränke DA und GN für Lagerhaus.xlsx
+++ b/2014/Getränke/Liste Getränke DA und GN für Lagerhaus.xlsx
@@ -264,9 +264,6 @@
     <t>Wein (weiß)</t>
   </si>
   <si>
-    <t>Gesamtverbrauch (Flaschen)</t>
-  </si>
-  <si>
     <t>à Einkaufspreis</t>
   </si>
   <si>
@@ -297,12 +294,6 @@
     <t>1x Durchlaufkühler à 14,40 €</t>
   </si>
   <si>
-    <t>50x Brauereigarnituren à 2,64 €</t>
-  </si>
-  <si>
-    <t>10x Brauereigarnituren à 2,64 €</t>
-  </si>
-  <si>
     <t>1x UNO-Bar mit großem Schirm und Durchlaufkühler à 60,00 €</t>
   </si>
   <si>
@@ -328,6 +319,15 @@
   </si>
   <si>
     <t>2x Kohlensäure 5kg à 36,96 €</t>
+  </si>
+  <si>
+    <t>50x Brauereigarnituren gratis</t>
+  </si>
+  <si>
+    <t>10x Brauereigarnituren gratis</t>
+  </si>
+  <si>
+    <t>Gesamtverbrauch</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,24 +786,24 @@
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -817,13 +817,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2053,7 +2053,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2073,7 +2073,7 @@
         <v>84</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2095,65 +2095,65 @@
     <row r="71" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C78" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/2014/Getränke/Liste Getränke DA und GN für Lagerhaus.xlsx
+++ b/2014/Getränke/Liste Getränke DA und GN für Lagerhaus.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Getränke und Gerätschaften" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Bestellung DA Lagerhaus" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="113">
   <si>
     <t>Getränk</t>
   </si>
@@ -328,6 +328,33 @@
   </si>
   <si>
     <t>Gesamtverbrauch</t>
+  </si>
+  <si>
+    <t>2x Große Kühlschränke</t>
+  </si>
+  <si>
+    <t>2x Durchlaufkühler</t>
+  </si>
+  <si>
+    <t>2x Kohlensäure 5kg</t>
+  </si>
+  <si>
+    <t>140x Kaiser Biergläser 0,3l</t>
+  </si>
+  <si>
+    <t>120x Kaiser Biergläser 0,5l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x Brauereigarnituren </t>
+  </si>
+  <si>
+    <t>Gerätschaften</t>
+  </si>
+  <si>
+    <t>Bestellmenge (Flaschen/Dosen)</t>
+  </si>
+  <si>
+    <t>Kommissionsbestellung Dorfabend 2014 - Lagerhaus Lungitz</t>
   </si>
 </sst>
 </file>
@@ -380,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +423,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -468,6 +501,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -776,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,12 +2207,1176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="13">
+        <v>9.9</v>
+      </c>
+      <c r="E4" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5.29</v>
+      </c>
+      <c r="E5" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="13">
+        <v>7.49</v>
+      </c>
+      <c r="E8" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="13">
+        <v>12.23</v>
+      </c>
+      <c r="E9" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="13">
+        <v>9.9</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="13">
+        <v>9.9</v>
+      </c>
+      <c r="E11" s="8">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="E13" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="E15" s="8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E17" s="8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1.37</v>
+      </c>
+      <c r="E18" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1.37</v>
+      </c>
+      <c r="E19" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D38" s="13">
+        <v>6.1050000000000004</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D39" s="13">
+        <v>7.0289999999999999</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D40" s="13">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="13">
+        <v>4.43</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D43" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="13">
+        <v>2.19</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1.99</v>
+      </c>
+      <c r="E45" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="D46" s="20">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E46" s="21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="19">
+        <v>1</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="19">
+        <v>2</v>
+      </c>
+      <c r="D48" s="20">
+        <v>1.99</v>
+      </c>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="19">
+        <v>2</v>
+      </c>
+      <c r="D50" s="20">
+        <v>1.38</v>
+      </c>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="19">
+        <v>0.33</v>
+      </c>
+      <c r="D52" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="E52" s="21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="19">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="19">
+        <v>2</v>
+      </c>
+      <c r="D54" s="20">
+        <v>1.99</v>
+      </c>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="19">
+        <v>2</v>
+      </c>
+      <c r="D55" s="20">
+        <v>1.38</v>
+      </c>
+      <c r="E55" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="19">
+        <v>0.35</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="E57" s="21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="19">
+        <v>0.33</v>
+      </c>
+      <c r="D58" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="E58" s="21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="19">
+        <v>1</v>
+      </c>
+      <c r="D59" s="20">
+        <v>2.15</v>
+      </c>
+      <c r="E59" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="19">
+        <v>1</v>
+      </c>
+      <c r="D60" s="20">
+        <v>1.49</v>
+      </c>
+      <c r="E60" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="D61" s="20">
+        <v>1.59</v>
+      </c>
+      <c r="E61" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="19">
+        <v>1</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E63" s="21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="19">
+        <v>10</v>
+      </c>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="19">
+        <v>25</v>
+      </c>
+      <c r="D65" s="20">
+        <v>58.71</v>
+      </c>
+      <c r="E65" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="19">
+        <v>50</v>
+      </c>
+      <c r="D66" s="20">
+        <v>108.13</v>
+      </c>
+      <c r="E66" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0.99</v>
+      </c>
+      <c r="E67" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="D69" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
